--- a/Data/Separation Unit Sensitivity.xlsx
+++ b/Data/Separation Unit Sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickt\Documents\Github\Flowsheeting\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2562E67B-04DA-42EE-ACAD-14CBEAB5D9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C97543F-4F08-49F9-AD65-62535998811D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{C6230BA0-E996-44D3-9592-45E2AEFF88FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="6" xr2:uid="{C6230BA0-E996-44D3-9592-45E2AEFF88FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Flashes" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="OrgDis" sheetId="4" r:id="rId4"/>
     <sheet name="XyDis" sheetId="5" r:id="rId5"/>
     <sheet name="BenDis" sheetId="6" r:id="rId6"/>
+    <sheet name="Crystal" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
   <si>
     <t>Temp/C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +258,14 @@
   </si>
   <si>
     <t>CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PxyIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PxyOut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15772,7 +15781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F94250D-3BD2-4BE1-9D7B-16A76A1BA698}">
   <dimension ref="A2:BO93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+    <sheetView topLeftCell="BA1" workbookViewId="0">
       <selection activeCell="BN4" sqref="BN4"/>
     </sheetView>
   </sheetViews>
@@ -38437,4 +38446,964 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259DE85-A116-44D9-AA2C-84F44D677BC4}">
+  <dimension ref="B2:E64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3">
+        <v>220</v>
+      </c>
+      <c r="C3">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D3">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E3">
+        <f>D3/C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>221</v>
+      </c>
+      <c r="C4">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D4">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E64" si="0">D4/C4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>222</v>
+      </c>
+      <c r="C5">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D5">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>223</v>
+      </c>
+      <c r="C6">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D6">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>224</v>
+      </c>
+      <c r="C7">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D7">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>225</v>
+      </c>
+      <c r="C8">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D8">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <v>226</v>
+      </c>
+      <c r="C9">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D9">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>227</v>
+      </c>
+      <c r="C10">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D10">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <v>228</v>
+      </c>
+      <c r="C11">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D11">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <v>229</v>
+      </c>
+      <c r="C12">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D12">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13">
+        <v>230</v>
+      </c>
+      <c r="C13">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D13">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <v>231</v>
+      </c>
+      <c r="C14">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D14">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15">
+        <v>232</v>
+      </c>
+      <c r="C15">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D15">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16">
+        <v>233</v>
+      </c>
+      <c r="C16">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D16">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>234</v>
+      </c>
+      <c r="C17">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D17">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>235</v>
+      </c>
+      <c r="C18">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D18">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <v>236</v>
+      </c>
+      <c r="C19">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D19">
+        <v>199.323432</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.99943556830261326</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
+        <v>237</v>
+      </c>
+      <c r="C20">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D20">
+        <v>199.15125699999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.99857225876973055</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>238</v>
+      </c>
+      <c r="C21">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D21">
+        <v>198.971295</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.99766990412964551</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <v>239</v>
+      </c>
+      <c r="C22">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D22">
+        <v>198.783006</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.99672579674682604</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <v>240</v>
+      </c>
+      <c r="C23">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D23">
+        <v>198.58579900000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.9957369732646062</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <v>241</v>
+      </c>
+      <c r="C24">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D24">
+        <v>198.37902500000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.99470017950620748</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>242</v>
+      </c>
+      <c r="C25">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D25">
+        <v>198.161969</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.99361183036161971</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
+        <v>243</v>
+      </c>
+      <c r="C26">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D26">
+        <v>197.93384599999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.99246798973104144</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <v>244</v>
+      </c>
+      <c r="C27">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D27">
+        <v>197.69378699999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.99126430032692181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>245</v>
+      </c>
+      <c r="C28">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D28">
+        <v>197.440831</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.98999594356084153</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>246</v>
+      </c>
+      <c r="C29">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D29">
+        <v>197.17390800000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.98865755430313484</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <v>247</v>
+      </c>
+      <c r="C30">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D30">
+        <v>196.89183</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.98724317575563081</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <v>248</v>
+      </c>
+      <c r="C31">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D31">
+        <v>196.59326799999999</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.98574614412643646</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32">
+        <v>249</v>
+      </c>
+      <c r="C32">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D32">
+        <v>196.27673300000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.98415899336127877</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33">
+        <v>250</v>
+      </c>
+      <c r="C33">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D33">
+        <v>195.94055299999999</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.98247333981828755</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34">
+        <v>251</v>
+      </c>
+      <c r="C34">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D34">
+        <v>195.58284</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.98067971680137989</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35">
+        <v>252</v>
+      </c>
+      <c r="C35">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D35">
+        <v>195.201457</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.97876740909364401</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36">
+        <v>253</v>
+      </c>
+      <c r="C36">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D36">
+        <v>194.79397299999999</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.97672422732104525</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37">
+        <v>254</v>
+      </c>
+      <c r="C37">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D37">
+        <v>194.447135</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.97498513307527224</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38">
+        <v>255</v>
+      </c>
+      <c r="C38">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D38">
+        <v>194.10668799999999</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.97327808419743667</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39">
+        <v>256</v>
+      </c>
+      <c r="C39">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D39">
+        <v>193.74742800000001</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.97147670430614341</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <v>257</v>
+      </c>
+      <c r="C40">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D40">
+        <v>193.36775399999999</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.96957296576345287</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41">
+        <v>258</v>
+      </c>
+      <c r="C41">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D41">
+        <v>192.97252700000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.9675912423032953</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42">
+        <v>259</v>
+      </c>
+      <c r="C42">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D42">
+        <v>192.572001</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.96558294891594287</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43">
+        <v>260</v>
+      </c>
+      <c r="C43">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D43">
+        <v>192.14811900000001</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.96345754527768313</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44">
+        <v>261</v>
+      </c>
+      <c r="C44">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D44">
+        <v>191.69877700000001</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.96120448163821981</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45">
+        <v>262</v>
+      </c>
+      <c r="C45">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D45">
+        <v>191.22161</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.95881189955674995</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46">
+        <v>263</v>
+      </c>
+      <c r="C46">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D46">
+        <v>190.71395000000001</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.95626642130808881</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47">
+        <v>263.14999999999998</v>
+      </c>
+      <c r="C47">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D47">
+        <v>190.63498899999999</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.95587049980946259</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48">
+        <v>264</v>
+      </c>
+      <c r="C48">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D48">
+        <v>190.08932999999999</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.95313448925971234</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49">
+        <v>265</v>
+      </c>
+      <c r="C49">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D49">
+        <v>189.38812100000001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.94961852925249202</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50">
+        <v>266</v>
+      </c>
+      <c r="C50">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D50">
+        <v>188.626654</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0.94580042720471724</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51">
+        <v>267</v>
+      </c>
+      <c r="C51">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D51">
+        <v>187.79681099999999</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.94163947832888739</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52">
+        <v>268</v>
+      </c>
+      <c r="C52">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D52">
+        <v>186.88895199999999</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.93708734631661272</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53">
+        <v>269</v>
+      </c>
+      <c r="C53">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D53">
+        <v>185.89152999999999</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0.93208613289476316</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54">
+        <v>270</v>
+      </c>
+      <c r="C54">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D54">
+        <v>184.790606</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0.92656594596762865</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55">
+        <v>271</v>
+      </c>
+      <c r="C55">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D55">
+        <v>183.569186</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0.92044157524218295</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56">
+        <v>272</v>
+      </c>
+      <c r="C56">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D56">
+        <v>182.206344</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0.91360809482741323</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57">
+        <v>273</v>
+      </c>
+      <c r="C57">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D57">
+        <v>180.676008</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0.90593477606851314</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58">
+        <v>274</v>
+      </c>
+      <c r="C58">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D58">
+        <v>178.945278</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0.89725665376361341</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59">
+        <v>275</v>
+      </c>
+      <c r="C59">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D59">
+        <v>176.972036</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0.88736254236948198</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60">
+        <v>276</v>
+      </c>
+      <c r="C60">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D60">
+        <v>174.701469</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0.87597760183718087</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61">
+        <v>277</v>
+      </c>
+      <c r="C61">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D61">
+        <v>172.060902</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>0.8627374295513347</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62">
+        <v>278</v>
+      </c>
+      <c r="C62">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D62">
+        <v>168.95187200000001</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0.84714831825748615</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63">
+        <v>279</v>
+      </c>
+      <c r="C63">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D63">
+        <v>165.23757900000001</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>0.82852433362081068</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64">
+        <v>280</v>
+      </c>
+      <c r="C64">
+        <v>199.43600000000001</v>
+      </c>
+      <c r="D64">
+        <v>160.72221500000001</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0.80588366694077296</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>